--- a/Test Data/TC_68_Verify_Units_Gallery_If_Maximum_Limit_Of_Slot_Cards_Repeaters_Loops_Miscellaneous_Supported_By_Panel.xlsx
+++ b/Test Data/TC_68_Verify_Units_Gallery_If_Maximum_Limit_Of_Slot_Cards_Repeaters_Loops_Miscellaneous_Supported_By_Panel.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72052DF0-C37E-4713-B67B-BB4D88D18FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices On Ethernet" sheetId="6" r:id="rId1"/>
     <sheet name="Add Devices on RBus" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Color Codes</t>
   </si>
@@ -120,12 +119,15 @@
   </si>
   <si>
     <t>MPM800</t>
+  </si>
+  <si>
+    <t>Add Devices On Ethernet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +673,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>14</v>
@@ -695,35 +697,6 @@
         <v>19</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -737,11 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F72A1DD-C6B1-422C-BE52-8341BCA3CA4F}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,35 +865,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -931,15 +875,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E9FB24-3A5B-41A4-95A5-060D8E2CDC1E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
